--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\backup H Drive\0 LYT temp\2020-xxxx toolbox\Small-Signal-Toolbox_yitong_v26\CustomerData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA42532-3AA6-44E2-B780-55289F0EBAF0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CD4DCC-2C9B-4DBD-A3EC-62BAFA6CEA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId2"/>
     <sheet name="Device" sheetId="3" r:id="rId3"/>
+    <sheet name="Simulation" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,6 +215,34 @@
   </si>
   <si>
     <t>The buses CAN be listed below in arbitrary order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization Method</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization method: 1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Simulation Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Samping frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fundamental Frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linearization Times</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linearization times: 1-initial step, 2-every Step</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -780,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1013,7 +1042,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1163,4 +1192,79 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.59765625" customWidth="1"/>
+    <col min="2" max="3" width="20.73046875" customWidth="1"/>
+    <col min="4" max="4" width="25.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
+        <v>50000</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59CD4DCC-2C9B-4DBD-A3EC-62BAFA6CEA6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551F32C-2241-4BDE-94FA-F8304DA242BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="7372" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,7 +242,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Linearization times: 1-initial step, 2-every Step</t>
+    <t>Linearization times: 1-initial step, 2-every step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damping Resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Damping resistor: 1-with, 2-without</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -810,7 +818,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1007,7 +1015,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F15">
-        <v>0.69499999999999995</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
@@ -1027,7 +1035,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F16">
-        <v>0.105</v>
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -1041,7 +1049,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1196,69 +1204,80 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.59765625" customWidth="1"/>
-    <col min="2" max="3" width="20.73046875" customWidth="1"/>
-    <col min="4" max="4" width="25.796875" customWidth="1"/>
+    <col min="2" max="4" width="20.73046875" customWidth="1"/>
+    <col min="5" max="5" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>45</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C7" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" s="1">
-        <v>50000</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
+        <v>20000</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
         <v>50</v>
       </c>
     </row>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1551F32C-2241-4BDE-94FA-F8304DA242BA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA61B3DD-1916-4EF2-BE1F-78E8075EC363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1103" yWindow="1103" windowWidth="14400" windowHeight="7372" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Discretization method: 1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Simulation Settings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,11 +242,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Damping Resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Damping resistor: 1-with, 2-without</t>
+    <t>Discre Damping Flag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discre damping flag: 1-with virtual damping resistor, 2-without virtual damping resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectFeedthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization method of Device: 1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1204,80 +1208,88 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="20.59765625" customWidth="1"/>
-    <col min="2" max="4" width="20.73046875" customWidth="1"/>
-    <col min="5" max="5" width="25.796875" customWidth="1"/>
+    <col min="2" max="2" width="20.73046875" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="4" max="5" width="20.73046875" customWidth="1"/>
+    <col min="6" max="6" width="25.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+      <c r="E8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
+      <c r="F8" t="s">
         <v>48</v>
       </c>
-      <c r="B7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>20000</v>
       </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
         <v>50</v>
       </c>
     </row>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA61B3DD-1916-4EF2-BE1F-78E8075EC363}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F22CF-B9D6-45A5-BDDD-A71E41D08512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,6 +255,54 @@
   </si>
   <si>
     <t>Discretization method of Device: 1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90, RL Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90-99, Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91, PQ Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-19, Grid-Following VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-29, Grid-Forming VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21, Droop-Controlled VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zbranch = R+wL+1/(wC+G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10, Synchronous Generator</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +663,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -819,10 +867,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -839,75 +887,60 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>11</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>13</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>14</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>0.01</v>
-      </c>
-      <c r="D9">
-        <v>0.3</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
         <v>2</v>
-      </c>
-      <c r="B10">
-        <v>3</v>
       </c>
       <c r="C10">
         <v>0.01</v>
@@ -924,10 +957,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
         <v>3</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
       </c>
       <c r="C11">
         <v>0.01</v>
@@ -947,7 +980,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12">
         <v>0.01</v>
@@ -964,30 +997,30 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F13">
-        <v>0.6</v>
+        <v>0.3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1004,10 +1037,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1019,15 +1052,15 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F15">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B16">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1039,6 +1072,26 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F16">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F17">
         <v>0.05</v>
       </c>
     </row>
@@ -1051,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1091,31 +1144,19 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E7" t="s">
         <v>23</v>
@@ -1123,79 +1164,145 @@
       <c r="F7" t="s">
         <v>12</v>
       </c>
-      <c r="G7" t="s">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="3"/>
+      <c r="B8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
         <v>27</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H9" t="s">
         <v>28</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
         <v>17</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B16" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>1</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18">
         <v>2</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12">
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19">
         <v>3</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
         <f>3.5/10</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A13">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20">
         <v>4</v>
       </c>
-      <c r="B13">
+      <c r="B20">
         <v>10</v>
       </c>
     </row>
@@ -1210,7 +1317,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E5F22CF-B9D6-45A5-BDDD-A71E41D08512}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B72185-3D79-4680-826E-432C8E278ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The buses CAN be listed below in arbitrary order.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Discretization Method</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -258,51 +254,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>10-19, Grid-Following VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-29, Grid-Forming VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21, Droop-Controlled VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zbranch = R+wL+1/(wC+G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10, Synchronous Generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>R (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>L (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Q (pu)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90, RL Load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>90-99, Load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91, PQ Load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-19, Grid-Following VSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20-29, Grid-Forming VSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>21, Droop-Controlled VSI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Zbranch = R+wL+1/(wC+G)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0-10, Synchronous Generator</t>
+    <t>Notes:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91, RL Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PQ value is obtained from "PowerFlow"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For load, only types 90, 91 are available for use now. Other types will be added later.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90-99, Passive Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90, PQ Passive Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>92, RLC Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Connection (1-Series, 2-Parallel)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P and Q are in generator convention.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For PQ Load bus, P and Q have to be negative.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -661,10 +673,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -686,89 +698,62 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="4" t="s">
+      <c r="A6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J8" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>1</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0.5</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>-1</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -797,7 +782,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10">
         <v>2</v>
@@ -829,10 +814,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -844,7 +829,7 @@
         <v>0.5</v>
       </c>
       <c r="F11">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -856,6 +841,38 @@
         <v>-1</v>
       </c>
       <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>-0.2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
@@ -870,7 +887,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -887,7 +904,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -1104,16 +1121,23 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.86328125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="2" max="2" width="31.59765625" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" customWidth="1"/>
+    <col min="4" max="4" width="12.1328125" customWidth="1"/>
+    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20.86328125" customWidth="1"/>
+    <col min="8" max="8" width="19.19921875" customWidth="1"/>
+    <col min="9" max="9" width="19.06640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
@@ -1143,8 +1167,8 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="3"/>
-      <c r="B6" t="s">
-        <v>66</v>
+      <c r="B6" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
@@ -1167,8 +1191,8 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>62</v>
+      <c r="B8" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1201,31 +1225,31 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>60</v>
+      <c r="B12" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -1233,76 +1257,92 @@
       <c r="B14" t="s">
         <v>61</v>
       </c>
-      <c r="C14" t="s">
-        <v>57</v>
-      </c>
       <c r="D14" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="3"/>
+      <c r="B15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B19" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>1</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21">
         <v>2</v>
       </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19">
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22">
         <v>3</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19" s="2">
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2">
         <f>3.5/10</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>4</v>
       </c>
-      <c r="B20">
+      <c r="B23">
         <v>10</v>
       </c>
     </row>
@@ -1317,8 +1357,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1332,7 +1372,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1342,17 +1382,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1362,22 +1402,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" t="s">
         <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B72185-3D79-4680-826E-432C8E278ACE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D655E25-17B2-4E36-B108-FAA5E80B6A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -314,7 +314,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For PQ Load bus, P and Q have to be negative.</t>
+    <t>For PQ Load bus, use Pli and Qli.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The generator and load CAN NOT be connected to the same bus, for this case, please use "NetworkLine" to set load.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -673,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="J13" sqref="A12:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -712,80 +716,53 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" s="4" t="s">
+      <c r="A7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>3</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>4</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>6</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H9" t="s">
         <v>7</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I9" t="s">
         <v>8</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J9" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>1</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0.5</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>-1</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -814,7 +791,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -846,10 +823,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -861,7 +838,7 @@
         <v>0.5</v>
       </c>
       <c r="F12">
-        <v>-0.2</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -873,12 +850,45 @@
         <v>-1</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0.5</v>
+      </c>
+      <c r="F13">
+        <v>-0.2</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>-1</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -887,7 +897,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F17" sqref="A14:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1123,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1357,7 +1367,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D655E25-17B2-4E36-B108-FAA5E80B6A5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E4E04-963A-4335-BB78-C4787CD29A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,10 @@
   </si>
   <si>
     <t>The generator and load CAN NOT be connected to the same bus, for this case, please use "NetworkLine" to set load.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, Floating Bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -680,7 +684,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="A12:J13"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -897,7 +901,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="A14:F17"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1131,10 +1135,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1281,49 +1285,40 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1338,21 +1333,36 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2">
         <f>3.5/10</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>10</v>
       </c>
     </row>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E0E4E04-963A-4335-BB78-C4787CD29A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471EDF78-2C53-4241-B22B-65BCAFA3100B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,10 +319,6 @@
   </si>
   <si>
     <t>The generator and load CAN NOT be connected to the same bus, for this case, please use "NetworkLine" to set load.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100, Floating Bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -683,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -901,7 +897,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1135,10 +1131,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I24"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1285,40 +1281,49 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3" t="s">
-        <v>71</v>
+      <c r="A16" s="3" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="3" t="s">
-        <v>60</v>
+      <c r="A17" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="5" t="s">
-        <v>63</v>
+      <c r="A18" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
-        <v>31</v>
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" t="s">
-        <v>19</v>
-      </c>
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1333,36 +1338,21 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B22">
         <v>0</v>
       </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
+      <c r="C22" s="2">
+        <f>3.5/10</f>
+        <v>0.35</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2">
-        <f>3.5/10</f>
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>4</v>
-      </c>
-      <c r="B24">
         <v>10</v>
       </c>
     </row>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471EDF78-2C53-4241-B22B-65BCAFA3100B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B578AAC-FBD3-4FF6-A65F-CF3697E50212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -319,6 +319,14 @@
   </si>
   <si>
     <t>The generator and load CAN NOT be connected to the same bus, for this case, please use "NetworkLine" to set load.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, Floating Bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the parameters are left to blank, the default paramters will be used.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1131,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1171,188 +1179,199 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
         <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
+      <c r="B7" s="3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" t="s">
-        <v>29</v>
+      <c r="B9" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>55</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
-      <c r="B12" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>67</v>
+      <c r="B12" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
-      <c r="B13" t="s">
-        <v>65</v>
-      </c>
-      <c r="D13" t="s">
-        <v>62</v>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="5" t="s">
-        <v>63</v>
+      <c r="A17" s="3"/>
+      <c r="B17" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
         <v>17</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>1</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>2</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
         <v>3</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2">
         <f>3.5/10</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>4</v>
       </c>
-      <c r="B23">
+      <c r="B25">
         <v>10</v>
       </c>
     </row>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B578AAC-FBD3-4FF6-A65F-CF3697E50212}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D70A26-909A-4EFA-9531-2BFDDC6FE85F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="75">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -290,10 +290,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>For load, only types 90, 91 are available for use now. Other types will be added later.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90-99, Passive Load</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -310,23 +306,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P and Q are in generator convention.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>For PQ Load bus, use Pli and Qli.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The generator and load CAN NOT be connected to the same bus, for this case, please use "NetworkLine" to set load.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>100, Floating Bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>If the parameters are left to blank, the default paramters will be used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGi and QGi are in generator convention. PLi and QLi are in load convention.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For active device (SG, VSI, etc), please use PGI and QGi. For load, please use PLi and QLi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> highlighted devices are not available currently.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For adding passive load, please use PLi and QLi in the "PowerFlow" sheet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Default</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -337,7 +369,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,6 +409,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -398,13 +447,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -685,10 +737,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -715,62 +767,89 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>70</v>
+      <c r="A7" s="4" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
-        <v>31</v>
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>9</v>
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>-1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -799,7 +878,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -831,10 +910,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
         <v>3</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -846,7 +925,7 @@
         <v>0.5</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -858,38 +937,6 @@
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>4</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0.5</v>
-      </c>
-      <c r="F13">
-        <v>-0.2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>-1</v>
-      </c>
-      <c r="J13">
         <v>1</v>
       </c>
     </row>
@@ -905,7 +952,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1139,10 +1186,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1180,7 +1227,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1193,185 +1240,244 @@
       <c r="B7" s="3" t="s">
         <v>58</v>
       </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>23</v>
-      </c>
-      <c r="F8" t="s">
-        <v>12</v>
+      <c r="B8" s="5" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
-      <c r="B9" s="3" t="s">
-        <v>54</v>
+      <c r="B9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
-      <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>23</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" t="s">
-        <v>29</v>
+      <c r="B10" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
-      <c r="B11" t="s">
-        <v>55</v>
+      <c r="B11" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
-      <c r="B13" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>67</v>
+      <c r="B13" s="8" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
-      <c r="B14" t="s">
-        <v>65</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
+      <c r="B14" s="6" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
-      <c r="B15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" t="s">
-        <v>59</v>
-      </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
+      <c r="B15" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
-      <c r="B16" t="s">
-        <v>66</v>
-      </c>
+      <c r="B16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A18" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
         <v>17</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B27" t="s">
         <v>18</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A29">
         <v>2</v>
       </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24">
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30">
         <v>3</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2">
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30" s="2">
         <f>3.5/10</f>
         <v>0.35</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31">
         <v>4</v>
       </c>
-      <c r="B25">
+      <c r="B31">
         <v>10</v>
       </c>
     </row>
@@ -1387,7 +1493,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D70A26-909A-4EFA-9531-2BFDDC6FE85F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC3D4C4-F88E-4812-888B-49B4262D0D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -306,10 +306,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>100, Floating Bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>If the parameters are left to blank, the default paramters will be used.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -359,6 +355,10 @@
   </si>
   <si>
     <t>Default</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, Floating Bus (Open Circuit)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,12 +767,12 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -1188,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1227,7 +1227,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1256,7 +1256,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1268,7 +1268,7 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -1307,7 +1307,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -1329,7 +1329,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1387,7 +1387,7 @@
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
@@ -1397,7 +1397,7 @@
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -1407,12 +1407,12 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEF121C-B7DB-4C2C-975E-42AF19BC44F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED18DF-AC02-49F0-BA06-D2A70CBE44C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,14 +182,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"minreal" may not be called successfully when:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case 2: a branch has both L and C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>This sheet summarizes the parameters for network line impedance.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -199,10 +191,6 @@
   </si>
   <si>
     <t>This sheet shows the summarizes of devices connected to buses.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>case 1: no capacitor for self branch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -334,11 +322,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%%%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>90, Infinite Bus (Short-Circuit in Small-Signal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutual branch HAS be RL.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self branch HAS TO be GC.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -720,14 +712,14 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -742,17 +734,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -929,17 +921,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -949,7 +941,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
@@ -959,50 +951,65 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>37</v>
+      <c r="A7" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="3" t="s">
-        <v>31</v>
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>0.01</v>
@@ -1019,10 +1026,10 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11">
         <v>0.01</v>
@@ -1042,7 +1049,7 @@
         <v>3</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12">
         <v>0.01</v>
@@ -1059,30 +1066,30 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F13">
+        <v>0.6</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -1099,10 +1106,10 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1114,15 +1121,15 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F15">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C16">
         <v>0</v>
@@ -1134,26 +1141,6 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F16">
-        <v>0.75</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>4</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F17">
         <v>0.05</v>
       </c>
     </row>
@@ -1168,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1187,7 +1174,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -1202,12 +1189,12 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
@@ -1218,7 +1205,7 @@
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -1236,7 +1223,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3"/>
       <c r="B8" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1248,13 +1235,13 @@
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C11" t="s">
         <v>25</v>
@@ -1287,19 +1274,19 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
@@ -1309,7 +1296,7 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1319,13 +1306,13 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
@@ -1335,28 +1322,28 @@
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1437,7 +1424,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1451,7 +1438,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1461,17 +1448,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1481,22 +1468,22 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
         <v>44</v>
-      </c>
-      <c r="C8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" t="s">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.4">

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED18DF-AC02-49F0-BA06-D2A70CBE44C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF17623-B6DB-4011-B38C-BDE7B3ACFA2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1837" yWindow="1837" windowWidth="14401" windowHeight="7433" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -322,15 +322,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>90, Infinite Bus (Short-Circuit in Small-Signal)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Mutual branch HAS be RL.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Self branch HAS TO be GC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90, Infinite Bus (Short Circuit in Small-Signal)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -711,7 +711,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
@@ -923,7 +923,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -951,12 +951,12 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
@@ -1155,8 +1155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1306,7 +1306,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34BA4715-CB6A-4BCD-B594-AFA3783F5AF1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28CA490-86D6-4783-B379-239EA4F654AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId2"/>
     <sheet name="Device" sheetId="3" r:id="rId3"/>
     <sheet name="Simulation" sheetId="4" r:id="rId4"/>
+    <sheet name="NetworkLine IEEE" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +119,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0, Synchronous Generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10, PLL-Controlled VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notes:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Data:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Form:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The branches can be listed in arbitrary order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>This sheet summarizes the parameters for network line impedance.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -130,7 +155,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet shows the summarizes of devices connected to buses.</t>
+    <t>The buses and corresponding devices CAN be listed below in arbitrary order.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The bus 1 HAVE TO be the slack bus, i.e., type-1 bus.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -138,10 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Simulation Settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Samping frequency (Hz)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -154,11 +179,191 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Linearization times: 1-initial step, 2-every step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Discre Damping Flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Discre damping flag: 1-with virtual damping resistor, 2-without virtual damping resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DirectFeedthrough</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Discretization method of Device: 1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-19, Grid-Following VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20-29, Grid-Forming VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21, Droop-Controlled VSI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zbranch = R+wL+1/(wC+G)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-10, Synchronous Generator</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If the parameters are left to blank, the default paramters will be used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGi and QGi are in generator convention. PLi and QLi are in load convention.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For active device (SG, VSI, etc), please use PGI and QGi. For load, please use PLi and QLi.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>red</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> highlighted devices are not available currently.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For adding passive load, please use PLi and QLi in the "PowerFlow" sheet.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%%%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100, Floating Bus (Open Circuit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Self branch HAS TO be GC.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>90, Infinite Bus (Short Circuit in Small-Signal)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mutual branch HAS TO be RL.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wL (pu) = 0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H (pu) = 3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>D (pu) = 5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R (pu) = 0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vdc (pu) = 2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cdc (pu) = 1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth PLL (Hz) = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth idq (Hz) = 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bandwidth vdc (Hz) = 20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For each bus, at least ONE and only ONE device can be connected.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the devices connected to buses.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes other settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>All self branch HAT TO be set, even with a very small value of G.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes the parameters for network line impedance in IEEE form.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine" in the toolbox.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G/2 (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The transformer is added between FromBus and Zbranch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -169,7 +374,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -209,6 +414,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,13 +452,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,117 +742,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G8" t="s">
         <v>6</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H8" t="s">
         <v>7</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I8" t="s">
         <v>8</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
         <v>0.5</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
         <v>-1</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A5">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0.5</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>-1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>3</v>
       </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
         <v>0.5</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
         <v>-1</v>
       </c>
-      <c r="J5">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0.5</v>
+      </c>
+      <c r="F12">
+        <v>-0.2</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>-1</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>
@@ -640,102 +954,237 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B10" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C10" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E10" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F10" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="C11">
         <v>0.01</v>
       </c>
-      <c r="D4">
+      <c r="D11">
         <v>0.3</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A12">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A16">
         <v>2</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0.5</v>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.05</v>
       </c>
     </row>
   </sheetData>
@@ -747,77 +1196,260 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="10.86328125" customWidth="1"/>
     <col min="2" max="2" width="31.59765625" customWidth="1"/>
-    <col min="3" max="3" width="14.3984375" customWidth="1"/>
-    <col min="4" max="4" width="12.1328125" customWidth="1"/>
-    <col min="5" max="5" width="11.19921875" customWidth="1"/>
+    <col min="3" max="3" width="13.9296875" customWidth="1"/>
+    <col min="4" max="4" width="15.265625" customWidth="1"/>
+    <col min="5" max="5" width="13.796875" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="20.86328125" customWidth="1"/>
-    <col min="8" max="8" width="19.19921875" customWidth="1"/>
-    <col min="9" max="9" width="19.06640625" customWidth="1"/>
+    <col min="7" max="7" width="22.46484375" customWidth="1"/>
+    <col min="8" max="8" width="22.265625" customWidth="1"/>
+    <col min="9" max="9" width="24.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="3"/>
+      <c r="B10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="3"/>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="3"/>
+      <c r="B14" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="3"/>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="3"/>
+      <c r="B16" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="3"/>
+      <c r="B21" s="5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B23" t="s">
         <v>18</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>90</v>
-      </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A5">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25">
         <v>2</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2">
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26" s="2">
+        <f>3.5/10</f>
+        <v>0.35</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27">
         <v>10</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -828,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A2:XFD6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -845,52 +1477,238 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
+      <c r="A3" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A4" s="1">
+      <c r="A4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>20000</v>
       </c>
-      <c r="B4">
+      <c r="B8">
         <v>2</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4" s="2">
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0.01</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>0.3</v>
+      </c>
+      <c r="E9" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>0.3</v>
+      </c>
+      <c r="E10" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F10">
+        <v>0.3</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11" s="1">
+        <f>(0.00001)/2</f>
+        <v>5.0000000000000004E-6</v>
+      </c>
+      <c r="F11">
+        <v>0.4</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28CA490-86D6-4783-B379-239EA4F654AD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68104B2-FD22-4392-966E-62B4A097C36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -364,6 +364,10 @@
   </si>
   <si>
     <t>The transformer is added between FromBus and Zbranch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turns Ratio</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,8 +748,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -936,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -954,60 +958,63 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="11.06640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1026,8 +1033,11 @@
       <c r="F10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1046,8 +1056,11 @@
       <c r="F11" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>2</v>
       </c>
@@ -1066,8 +1079,11 @@
       <c r="F12" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>3</v>
       </c>
@@ -1086,8 +1102,11 @@
       <c r="F13" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>3</v>
       </c>
@@ -1106,8 +1125,11 @@
       <c r="F14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1126,8 +1148,11 @@
       <c r="F15">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>2</v>
       </c>
@@ -1146,8 +1171,11 @@
       <c r="F16">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>3</v>
       </c>
@@ -1166,8 +1194,11 @@
       <c r="F17">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>4</v>
       </c>
@@ -1185,6 +1216,9 @@
       </c>
       <c r="F18">
         <v>0.05</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68104B2-FD22-4392-966E-62B4A097C36C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5142052-2AC0-4905-8511-FBA9291F2982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -940,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>-1</v>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5142052-2AC0-4905-8511-FBA9291F2982}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3846432-A652-4078-90A5-68E6DAADB441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
-    <sheet name="NetworkLine" sheetId="2" r:id="rId2"/>
-    <sheet name="Device" sheetId="3" r:id="rId3"/>
-    <sheet name="Simulation" sheetId="4" r:id="rId4"/>
-    <sheet name="NetworkLine IEEE" sheetId="5" r:id="rId5"/>
+    <sheet name="Device" sheetId="3" r:id="rId2"/>
+    <sheet name="Simulation" sheetId="4" r:id="rId3"/>
+    <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
+    <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -136,10 +136,6 @@
   </si>
   <si>
     <t>type: 1-slack bus, 2-PV bus, 3-PQ bus</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Data Form:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -355,10 +351,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine" in the toolbox.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>G/2 (pu)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -367,7 +359,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Turns Ratio</t>
+    <t>Turns Ratio (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If using this sheet, please set enable from 0 to 1, then this sheet will over-write "NetworkLine"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Data Form with Default Values:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -748,7 +748,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
@@ -756,7 +756,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
@@ -771,17 +771,17 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -957,288 +957,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="7" max="7" width="11.06640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A3" s="5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A4" s="5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A5" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>1</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-      <c r="C11">
-        <v>0.01</v>
-      </c>
-      <c r="D11">
-        <v>0.3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" t="s">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>2</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>0.01</v>
-      </c>
-      <c r="D12">
-        <v>0.3</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>3</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>0.01</v>
-      </c>
-      <c r="D13">
-        <v>0.3</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>3</v>
-      </c>
-      <c r="B14">
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <v>0.01</v>
-      </c>
-      <c r="D14">
-        <v>0.3</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>1</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F15">
-        <v>0.6</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F16">
-        <v>0.6</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>3</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F17">
-        <v>0.75</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>4</v>
-      </c>
-      <c r="B18">
-        <v>4</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1.0000000000000001E-5</v>
-      </c>
-      <c r="F18">
-        <v>0.05</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I27"/>
-  <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="10.86328125" customWidth="1"/>
+    <col min="1" max="1" width="8.33203125" customWidth="1"/>
     <col min="2" max="2" width="31.59765625" customWidth="1"/>
     <col min="3" max="3" width="13.9296875" customWidth="1"/>
     <col min="4" max="4" width="15.265625" customWidth="1"/>
@@ -1251,7 +979,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -1261,50 +989,50 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
         <v>56</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
         <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1316,34 +1044,34 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" t="s">
-        <v>58</v>
-      </c>
-      <c r="G12" t="s">
-        <v>63</v>
-      </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>61</v>
-      </c>
-      <c r="I12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -1355,19 +1083,19 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1377,7 +1105,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1387,13 +1115,13 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1403,13 +1131,13 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -1492,12 +1220,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1511,7 +1239,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
@@ -1521,17 +1249,17 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.4">
@@ -1541,27 +1269,27 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
         <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
-        <v>20000</v>
+        <v>40000</v>
       </c>
       <c r="B8">
         <v>2</v>
@@ -1577,6 +1305,278 @@
       </c>
       <c r="F8" s="2">
         <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
+  <dimension ref="A1:G18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="14.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A4" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A6" s="5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A7" s="5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" t="s">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.3</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12">
+        <v>0.01</v>
+      </c>
+      <c r="D12">
+        <v>0.3</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>0.01</v>
+      </c>
+      <c r="D13">
+        <v>0.3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>0.01</v>
+      </c>
+      <c r="D14">
+        <v>0.3</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F15">
+        <v>0.6</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F16">
+        <v>0.6</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>3</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F17">
+        <v>0.75</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="F18">
+        <v>0.05</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1590,15 +1590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1608,12 +1608,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1637,16 +1637,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" t="s">
         <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1667,10 +1667,10 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="F8">
-        <v>0.1</v>
+        <v>0.25</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1691,7 +1691,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="F9">
-        <v>0.2</v>
+        <v>0.35</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="F10">
-        <v>0.3</v>
+        <v>0.35</v>
       </c>
       <c r="G10">
         <v>1</v>
@@ -1739,7 +1739,7 @@
         <v>5.0000000000000004E-6</v>
       </c>
       <c r="F11">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="G11">
         <v>1</v>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3846432-A652-4078-90A5-68E6DAADB441}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FFD5DC-CD7C-4500-AA28-9786B16D086F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1FFD5DC-CD7C-4500-AA28-9786B16D086F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0C10D-F891-4B2B-90FD-FCB39292EA9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,9 @@
     <sheet name="Simulation" sheetId="4" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
+    <sheet name="Advanced Setting" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,31 +168,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Fundamental Frequency (Hz)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Linearization Times</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Linearization times: 1-initial step, 2-every step</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Discre Damping Flag</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Discre damping flag: 1-with virtual damping resistor, 2-without virtual damping resistor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DirectFeedthrough</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Discretization method of Device: 1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -369,6 +353,54 @@
   </si>
   <si>
     <t>Data Form with Default Values:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_SimulinkModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotPole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotAdmittance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheets summaries advanced settings for the toolbox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Forward Eular, 2-Hybrid Euler-Trapezoidal, 3-Virtual damping</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Enable, 2-Disable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Initial step, 2-Every step</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-With virtual damping resistor, 2-Without virtual damping resistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Yes, 2-No</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Frequency (Hz)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Power (VA)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Base Voltage (V)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -750,7 +782,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -777,12 +809,12 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -961,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -980,7 +1012,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -990,7 +1022,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
@@ -1000,40 +1032,40 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -1045,34 +1077,34 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
         <v>58</v>
       </c>
-      <c r="D12" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" t="s">
         <v>57</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
-      </c>
-      <c r="H12" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -1084,19 +1116,19 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1106,7 +1138,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1116,13 +1148,13 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="8" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1132,13 +1164,13 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
@@ -1223,89 +1255,60 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" customWidth="1"/>
-    <col min="2" max="2" width="20.73046875" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="20.73046875" customWidth="1"/>
-    <col min="6" max="6" width="25.796875" customWidth="1"/>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="18.53125" customWidth="1"/>
+    <col min="3" max="3" width="14.9296875" customWidth="1"/>
+    <col min="4" max="4" width="15.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+        <v>82</v>
+      </c>
+      <c r="B4" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A8" s="1">
-        <v>40000</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8" s="2">
-        <v>50</v>
+        <v>83</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1340,12 +1343,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1355,17 +1358,17 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1393,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1591,15 +1594,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1609,12 +1612,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1638,16 +1641,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G7" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1744,6 +1747,113 @@
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AA0C10D-F891-4B2B-90FD-FCB39292EA9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0BE9C8-1533-4D64-AB4B-70055D848F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
     <sheet name="Device" sheetId="3" r:id="rId2"/>
-    <sheet name="Simulation" sheetId="4" r:id="rId3"/>
+    <sheet name="Basic" sheetId="4" r:id="rId3"/>
     <sheet name="NetworkLine" sheetId="2" r:id="rId4"/>
     <sheet name="NetworkLine_IEEE Form" sheetId="5" r:id="rId5"/>
     <sheet name="Advanced Setting" sheetId="6" r:id="rId6"/>
@@ -308,10 +308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>This sheet summarizes other settings</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>All self branch HAT TO be set, even with a very small value of G.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -401,6 +397,10 @@
   </si>
   <si>
     <t>Base Voltage (V)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This sheet summarizes basic settings</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,8 +993,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1047,7 +1047,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
@@ -1257,8 +1257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1271,7 +1271,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
@@ -1289,7 +1289,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1297,7 +1297,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1305,7 +1305,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1323,7 +1323,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1348,7 +1348,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1368,7 +1368,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1396,7 +1396,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1419,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="G11">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.4">
@@ -1595,14 +1595,14 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
@@ -1612,12 +1612,12 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1641,16 +1641,16 @@
         <v>12</v>
       </c>
       <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
         <v>66</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="F7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1674,7 +1674,7 @@
         <v>0.25</v>
       </c>
       <c r="G8">
-        <v>0.999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1771,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
@@ -1787,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
@@ -1798,7 +1798,7 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
@@ -1809,7 +1809,7 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
@@ -1820,40 +1820,40 @@
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B0BE9C8-1533-4D64-AB4B-70055D848F22}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A5D152-D383-41D1-A276-AA630CE57350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -401,6 +401,14 @@
   </si>
   <si>
     <t>This sheet summarizes basic settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PrintOutput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enable_PlotSwing</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -994,7 +1002,7 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1257,7 +1265,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EB93A31-1E5A-4104-8C10-8E6599437516}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1322,7 +1330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1594,8 +1602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1674,7 +1682,7 @@
         <v>0.25</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1758,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1841,9 +1849,6 @@
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="D8" t="s">
-        <v>77</v>
-      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -1852,8 +1857,21 @@
       <c r="B9">
         <v>1</v>
       </c>
-      <c r="D9" t="s">
-        <v>77</v>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A5D152-D383-41D1-A276-AA630CE57350}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B4C2DA-46D8-4381-9A2E-FFEBD8F01F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -48,38 +48,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vsp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>theta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PGi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QGi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>QLi</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qmin</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Qmax</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>from bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,6 +377,38 @@
   </si>
   <si>
     <t>Enable_PlotSwing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PGi (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QGi (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLi (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QLi (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qmin (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Qmax (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vsp (pu)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>theta (rad/s)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,45 +789,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="10" max="10" width="9.59765625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A2" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A7" s="4" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -838,28 +842,28 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>86</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s">
-        <v>5</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>7</v>
+        <v>82</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>9</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -1020,123 +1024,123 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
         <v>50</v>
       </c>
-      <c r="F12" t="s">
-        <v>53</v>
-      </c>
-      <c r="G12" t="s">
-        <v>58</v>
-      </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="6" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
@@ -1146,7 +1150,7 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1156,13 +1160,13 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="8" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
@@ -1172,29 +1176,29 @@
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="5" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -1279,17 +1283,17 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>40000</v>
@@ -1297,7 +1301,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
@@ -1305,7 +1309,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1313,7 +1317,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1330,7 +1334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B0C2B6E-74BD-40FA-8EB6-D64D8C21837A}">
   <dimension ref="A1:G18"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
@@ -1341,70 +1345,70 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="5" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="5" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="5" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.4">
@@ -1424,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -1447,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -1470,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -1493,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -1602,30 +1606,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="7" max="7" width="12.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
@@ -1635,30 +1642,30 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D7" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.4">
@@ -1779,72 +1786,72 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B6">
         <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1852,7 +1859,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1860,7 +1867,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1868,7 +1875,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>1</v>

--- a/CustomerData/netlist.xlsx
+++ b/CustomerData/netlist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\CustomerData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B4C2DA-46D8-4381-9A2E-FFEBD8F01F18}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC5686D8-DC53-4291-8193-C124B3D1CBD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PowerFlow" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>bus</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -409,6 +409,18 @@
   </si>
   <si>
     <t>theta (rad/s)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11, PLL-Controlled VSI (without dc bus control)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Power Flow Algorithm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-Gauss-Seidel, 2-Newtown-Raphson</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,8 +801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1003,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1127,30 +1139,26 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
-      <c r="B14" s="8" t="s">
-        <v>37</v>
+      <c r="B14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
-      <c r="B15" s="6" t="s">
-        <v>28</v>
+      <c r="B15" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
-      <c r="B16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
+      <c r="B16" s="6" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
-      <c r="B17" s="8" t="s">
-        <v>37</v>
+      <c r="B17" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
@@ -1159,68 +1167,61 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
+      <c r="B18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
-      <c r="B19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
-      <c r="B20" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B20" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+      <c r="B22" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A22" s="3" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
         <v>9</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>10</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>1</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2">
-        <v>1</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1237,24 +1238,40 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B26">
         <v>0</v>
       </c>
-      <c r="C26" s="2">
-        <f>3.5/10</f>
-        <v>0.35</v>
-      </c>
-      <c r="D26">
-        <v>1</v>
-      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2">
+        <v>1</v>
+      </c>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.35</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28">
         <v>4</v>
       </c>
-      <c r="B27">
+      <c r="B28">
         <v>10</v>
       </c>
     </row>
@@ -1270,7 +1287,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1606,8 +1623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64D00B5E-E2E7-41B8-8388-8931D474EA96}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1637,7 +1654,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.4">
@@ -1689,7 +1706,7 @@
         <v>0.25</v>
       </c>
       <c r="G8">
-        <v>0.99990000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.4">
@@ -1773,10 +1790,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1840,26 +1857,29 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B8">
         <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1867,7 +1887,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1875,9 +1895,17 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
         <v>78</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>1</v>
       </c>
     </row>
